--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A231F1F4-CC97-4F22-AA8B-B47843BDBD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A30111-55D9-428D-BD40-135F3FE9C956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1145,8 +1145,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1361,10 +1361,10 @@
         <v>89</v>
       </c>
       <c r="F12" s="18">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="G12" s="19">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1382,10 +1382,10 @@
         <v>91</v>
       </c>
       <c r="F13" s="24">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="G13" s="25">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1467,15 +1467,17 @@
       <c r="C17" s="22">
         <v>45588</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="23">
+        <v>45609</v>
+      </c>
       <c r="E17" s="20" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="24">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="G17" s="25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
@@ -1488,15 +1490,17 @@
       <c r="C18" s="22">
         <v>45588</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="23">
+        <v>45609</v>
+      </c>
       <c r="E18" s="20" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="24">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="G18" s="25">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A30111-55D9-428D-BD40-135F3FE9C956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B873D798-CA82-4169-98D5-A073594325A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -300,10 +300,16 @@
     <t>Francisco Costa</t>
   </si>
   <si>
-    <t>Grupo nº1</t>
-  </si>
-  <si>
     <t>Francisco e Daniel</t>
+  </si>
+  <si>
+    <t>Francisco e Rafael</t>
+  </si>
+  <si>
+    <t>Daniel Correia</t>
+  </si>
+  <si>
+    <t>Grupo nº1  Github: https://github.com/tugafirept/BD2-Projeto</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1151,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:E18"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1165,12 +1171,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45597</v>
+        <v>45623</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1356,15 +1362,17 @@
       <c r="C12" s="16">
         <v>45588</v>
       </c>
-      <c r="D12" s="17"/>
+      <c r="D12" s="23">
+        <v>45616</v>
+      </c>
       <c r="E12" s="14" t="s">
         <v>89</v>
       </c>
       <c r="F12" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0.9</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="25">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1377,15 +1385,17 @@
       <c r="C13" s="22">
         <v>45588</v>
       </c>
-      <c r="D13" s="23"/>
+      <c r="D13" s="23">
+        <v>45616</v>
+      </c>
       <c r="E13" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="24">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G13" s="25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1473,8 +1483,8 @@
       <c r="E17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="F17" s="24">
-        <v>0.9</v>
+      <c r="F17" s="25">
+        <v>1</v>
       </c>
       <c r="G17" s="25">
         <v>1</v>
@@ -1496,8 +1506,8 @@
       <c r="E18" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="24">
-        <v>0.9</v>
+      <c r="F18" s="25">
+        <v>1</v>
       </c>
       <c r="G18" s="25">
         <v>1</v>
@@ -1513,16 +1523,20 @@
       <c r="C19" s="32">
         <v>45588</v>
       </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="30"/>
+      <c r="D19" s="32">
+        <v>45616</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>87</v>
+      </c>
       <c r="F19" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>37</v>
       </c>
@@ -1546,14 +1560,18 @@
       <c r="B21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="22"/>
+      <c r="C21" s="22">
+        <v>45616</v>
+      </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="20"/>
+      <c r="E21" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="F21" s="18">
         <v>0</v>
       </c>
       <c r="G21" s="19">
-        <v>0</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1563,14 +1581,18 @@
       <c r="B22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="22"/>
+      <c r="C22" s="22">
+        <v>45616</v>
+      </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="20"/>
+      <c r="E22" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="F22" s="18">
         <v>0</v>
       </c>
       <c r="G22" s="19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1580,14 +1602,18 @@
       <c r="B23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="22"/>
+      <c r="C23" s="22">
+        <v>45616</v>
+      </c>
       <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="20" t="s">
+        <v>92</v>
+      </c>
       <c r="F23" s="18">
         <v>0</v>
       </c>
       <c r="G23" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1597,14 +1623,18 @@
       <c r="B24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="22"/>
+      <c r="C24" s="22">
+        <v>45616</v>
+      </c>
       <c r="D24" s="23"/>
-      <c r="E24" s="20"/>
+      <c r="E24" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="F24" s="18">
         <v>0</v>
       </c>
       <c r="G24" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1614,14 +1644,18 @@
       <c r="B25" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="22"/>
+      <c r="C25" s="22">
+        <v>45616</v>
+      </c>
       <c r="D25" s="23"/>
-      <c r="E25" s="20"/>
+      <c r="E25" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="F25" s="18">
         <v>0</v>
       </c>
       <c r="G25" s="19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1631,7 +1665,9 @@
       <c r="B26" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="22"/>
+      <c r="C26" s="22">
+        <v>45616</v>
+      </c>
       <c r="D26" s="23"/>
       <c r="E26" s="20"/>
       <c r="F26" s="24">
@@ -1648,7 +1684,9 @@
       <c r="B27" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="27">
+        <v>45616</v>
+      </c>
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
       <c r="F27" s="18">
@@ -1665,7 +1703,9 @@
       <c r="B28" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="27"/>
+      <c r="C28" s="27">
+        <v>45616</v>
+      </c>
       <c r="D28" s="28"/>
       <c r="E28" s="29"/>
       <c r="F28" s="18">
@@ -1682,7 +1722,9 @@
       <c r="B29" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="27"/>
+      <c r="C29" s="27">
+        <v>45616</v>
+      </c>
       <c r="D29" s="28"/>
       <c r="E29" s="29"/>
       <c r="F29" s="18">

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B873D798-CA82-4169-98D5-A073594325A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379ED9C-7F32-4E9D-9285-089048478837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -186,21 +186,9 @@
     <t>T3.2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">    Página 1</t>
-  </si>
-  <si>
     <t>T3.2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">    Página 2</t>
-  </si>
-  <si>
-    <t>T3.2.n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Página "n"</t>
-  </si>
-  <si>
     <t>MP3.1</t>
   </si>
   <si>
@@ -310,6 +298,21 @@
   </si>
   <si>
     <t>Grupo nº1  Github: https://github.com/tugafirept/BD2-Projeto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Páginas de administrador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Páginas de utilizadores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Páginas de empresas</t>
+  </si>
+  <si>
+    <t>T3.2.3</t>
+  </si>
+  <si>
+    <t>Rafael e Daniel</t>
   </si>
 </sst>
 </file>
@@ -1151,8 +1154,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1171,12 +1174,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45623</v>
+        <v>45631</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1234,7 +1237,7 @@
         <v>45553</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F6" s="18">
         <v>1</v>
@@ -1257,7 +1260,7 @@
         <v>45558</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F7" s="18">
         <v>1</v>
@@ -1280,7 +1283,7 @@
         <v>45558</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F8" s="18">
         <v>1</v>
@@ -1303,7 +1306,7 @@
         <v>45558</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F9" s="18">
         <v>1</v>
@@ -1326,7 +1329,7 @@
         <v>45558</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F10" s="34">
         <v>1</v>
@@ -1366,7 +1369,7 @@
         <v>45616</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F12" s="18">
         <v>1</v>
@@ -1389,7 +1392,7 @@
         <v>45616</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" s="24">
         <v>1</v>
@@ -1412,7 +1415,7 @@
         <v>45588</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F14" s="24">
         <v>1</v>
@@ -1435,7 +1438,7 @@
         <v>45588</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F15" s="24">
         <v>1</v>
@@ -1458,7 +1461,7 @@
         <v>45588</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F16" s="24">
         <v>1</v>
@@ -1481,7 +1484,7 @@
         <v>45609</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
@@ -1504,7 +1507,7 @@
         <v>45609</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
@@ -1527,7 +1530,7 @@
         <v>45616</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F19" s="34">
         <v>1</v>
@@ -1565,13 +1568,13 @@
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="20" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F21" s="18">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="G21" s="19">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1586,13 +1589,13 @@
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F22" s="18">
-        <v>0</v>
+        <v>87</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.6</v>
       </c>
       <c r="G22" s="19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1607,13 +1610,13 @@
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="18">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.3</v>
       </c>
       <c r="G23" s="19">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1628,13 +1631,13 @@
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="18">
-        <v>0</v>
+        <v>82</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0.3</v>
       </c>
       <c r="G24" s="19">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,13 +1652,13 @@
       </c>
       <c r="D25" s="23"/>
       <c r="E25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" s="18">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F25" s="19">
+        <v>0.2</v>
       </c>
       <c r="G25" s="19">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1669,12 +1672,14 @@
         <v>45616</v>
       </c>
       <c r="D26" s="23"/>
-      <c r="E26" s="20"/>
+      <c r="E26" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="F26" s="24">
         <v>0</v>
       </c>
       <c r="G26" s="25">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1682,67 +1687,73 @@
         <v>51</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="C27" s="27">
         <v>45616</v>
       </c>
       <c r="D27" s="28"/>
-      <c r="E27" s="29"/>
+      <c r="E27" s="29" t="s">
+        <v>94</v>
+      </c>
       <c r="F27" s="18">
         <v>0</v>
       </c>
       <c r="G27" s="19">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="C28" s="27">
         <v>45616</v>
       </c>
       <c r="D28" s="28"/>
-      <c r="E28" s="29"/>
+      <c r="E28" s="29" t="s">
+        <v>82</v>
+      </c>
       <c r="F28" s="18">
         <v>0</v>
       </c>
       <c r="G28" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="C29" s="27">
         <v>45616</v>
       </c>
       <c r="D29" s="28"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="29" t="s">
+        <v>85</v>
+      </c>
       <c r="F29" s="18">
         <v>0</v>
       </c>
       <c r="G29" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C30" s="32">
-        <v>45624</v>
+        <v>45616</v>
       </c>
       <c r="D30" s="32">
         <v>45649</v>
@@ -1757,10 +1768,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C31" s="11">
         <v>45649</v>
@@ -1774,10 +1785,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C32" s="16"/>
       <c r="D32" s="17"/>
@@ -1791,10 +1802,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
@@ -1808,10 +1819,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="40" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C34" s="41"/>
       <c r="D34" s="41"/>
@@ -1825,16 +1836,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C35" s="45">
         <v>45304</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E35" s="43"/>
       <c r="F35" s="44"/>
@@ -1842,10 +1853,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="50"/>
@@ -1859,10 +1870,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="54" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B37" s="55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C37" s="22"/>
       <c r="D37" s="23"/>
@@ -1876,10 +1887,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="54" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B38" s="55" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="23"/>
@@ -1893,10 +1904,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="54" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" s="56" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C39" s="22"/>
       <c r="D39" s="23"/>
@@ -1910,10 +1921,10 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="54" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B40" s="56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C40" s="22"/>
       <c r="D40" s="23"/>
@@ -1927,10 +1938,10 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="54" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
@@ -1944,10 +1955,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="54" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B42" s="56" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
@@ -1961,10 +1972,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="57" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B43" s="58" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C43" s="59"/>
       <c r="D43" s="60"/>

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379ED9C-7F32-4E9D-9285-089048478837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68710067-BAF2-49E8-8F40-42EF33173532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,8 +1154,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45631</v>
+        <v>45639</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1570,11 +1570,11 @@
       <c r="E21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="18">
-        <v>0.45</v>
+      <c r="F21" s="19">
+        <v>0.7</v>
       </c>
       <c r="G21" s="19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1592,10 +1592,10 @@
         <v>87</v>
       </c>
       <c r="F22" s="19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G22" s="19">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1613,10 +1613,10 @@
         <v>88</v>
       </c>
       <c r="F23" s="19">
-        <v>0.3</v>
+        <v>0.65</v>
       </c>
       <c r="G23" s="19">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1634,10 +1634,10 @@
         <v>82</v>
       </c>
       <c r="F24" s="19">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="G24" s="19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1655,10 +1655,10 @@
         <v>84</v>
       </c>
       <c r="F25" s="19">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G25" s="19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1675,11 +1675,11 @@
       <c r="E26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="24">
-        <v>0</v>
+      <c r="F26" s="25">
+        <v>0.35</v>
       </c>
       <c r="G26" s="25">
-        <v>0.35</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1696,11 +1696,11 @@
       <c r="E27" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="F27" s="18">
-        <v>0</v>
+      <c r="F27" s="19">
+        <v>0.7</v>
       </c>
       <c r="G27" s="19">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1717,11 +1717,11 @@
       <c r="E28" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="F28" s="18">
-        <v>0</v>
+      <c r="F28" s="19">
+        <v>0.3</v>
       </c>
       <c r="G28" s="19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1738,11 +1738,11 @@
       <c r="E29" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="18">
-        <v>0</v>
+      <c r="F29" s="19">
+        <v>0.3</v>
       </c>
       <c r="G29" s="19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68710067-BAF2-49E8-8F40-42EF33173532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95B107-F372-4032-AC40-0E0A825B29B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1154,8 +1154,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1179,7 +1179,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45639</v>
+        <v>45644</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1566,15 +1566,17 @@
       <c r="C21" s="22">
         <v>45616</v>
       </c>
-      <c r="D21" s="23"/>
+      <c r="D21" s="22">
+        <v>45644</v>
+      </c>
       <c r="E21" s="20" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="19">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="G21" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1587,15 +1589,17 @@
       <c r="C22" s="22">
         <v>45616</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="22">
+        <v>45644</v>
+      </c>
       <c r="E22" s="20" t="s">
         <v>87</v>
       </c>
       <c r="F22" s="19">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="G22" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -1608,15 +1612,17 @@
       <c r="C23" s="22">
         <v>45616</v>
       </c>
-      <c r="D23" s="23"/>
+      <c r="D23" s="22">
+        <v>45644</v>
+      </c>
       <c r="E23" s="20" t="s">
         <v>88</v>
       </c>
       <c r="F23" s="19">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="G23" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1629,15 +1635,17 @@
       <c r="C24" s="22">
         <v>45616</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="22">
+        <v>45644</v>
+      </c>
       <c r="E24" s="20" t="s">
         <v>82</v>
       </c>
       <c r="F24" s="19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G24" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1650,15 +1658,17 @@
       <c r="C25" s="22">
         <v>45616</v>
       </c>
-      <c r="D25" s="23"/>
+      <c r="D25" s="22">
+        <v>45644</v>
+      </c>
       <c r="E25" s="20" t="s">
         <v>84</v>
       </c>
       <c r="F25" s="19">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G25" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1671,15 +1681,17 @@
       <c r="C26" s="22">
         <v>45616</v>
       </c>
-      <c r="D26" s="23"/>
+      <c r="D26" s="22">
+        <v>45644</v>
+      </c>
       <c r="E26" s="20" t="s">
         <v>84</v>
       </c>
       <c r="F26" s="25">
-        <v>0.35</v>
-      </c>
-      <c r="G26" s="25">
         <v>0.65</v>
+      </c>
+      <c r="G26" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -1692,15 +1704,17 @@
       <c r="C27" s="27">
         <v>45616</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="22">
+        <v>45644</v>
+      </c>
       <c r="E27" s="29" t="s">
         <v>94</v>
       </c>
       <c r="F27" s="19">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="G27" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -1713,15 +1727,17 @@
       <c r="C28" s="27">
         <v>45616</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="22">
+        <v>45644</v>
+      </c>
       <c r="E28" s="29" t="s">
         <v>82</v>
       </c>
       <c r="F28" s="19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G28" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -1734,15 +1750,17 @@
       <c r="C29" s="27">
         <v>45616</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="22">
+        <v>45644</v>
+      </c>
       <c r="E29" s="29" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="19">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G29" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -1755,9 +1773,7 @@
       <c r="C30" s="32">
         <v>45616</v>
       </c>
-      <c r="D30" s="32">
-        <v>45649</v>
-      </c>
+      <c r="D30" s="32"/>
       <c r="E30" s="30"/>
       <c r="F30" s="34">
         <v>0</v>

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E95B107-F372-4032-AC40-0E0A825B29B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC627B35-48B1-4962-82BF-523840889E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>Rafael e Daniel</t>
+  </si>
+  <si>
+    <t>Francisco e Guilherme</t>
   </si>
 </sst>
 </file>
@@ -670,7 +673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -718,7 +721,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1154,8 +1156,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1179,7 +1181,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45644</v>
+        <v>45645</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1662,7 +1664,7 @@
         <v>45644</v>
       </c>
       <c r="E25" s="20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="19">
         <v>0.8</v>
@@ -1731,7 +1733,7 @@
         <v>45644</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F28" s="19">
         <v>0.5</v>
@@ -1754,7 +1756,7 @@
         <v>45644</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F29" s="19">
         <v>0.5</v>
@@ -1773,13 +1775,17 @@
       <c r="C30" s="32">
         <v>45616</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="30"/>
+      <c r="D30" s="32">
+        <v>45645</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>83</v>
+      </c>
       <c r="F30" s="34">
         <v>0</v>
       </c>
       <c r="G30" s="35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -1806,14 +1812,18 @@
       <c r="B32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="16"/>
+      <c r="C32" s="27">
+        <v>45643</v>
+      </c>
       <c r="D32" s="17"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="14" t="s">
+        <v>95</v>
+      </c>
       <c r="F32" s="18">
         <v>0</v>
       </c>
       <c r="G32" s="19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1823,72 +1833,78 @@
       <c r="B33" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="39"/>
+      <c r="C33" s="27">
+        <v>45643</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38" t="s">
+        <v>82</v>
+      </c>
       <c r="F33" s="18">
         <v>0</v>
       </c>
       <c r="G33" s="19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+      <c r="A34" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="42">
-        <v>0</v>
-      </c>
-      <c r="G34" s="42">
+      <c r="C34" s="32">
+        <v>45643</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="41">
+        <v>0</v>
+      </c>
+      <c r="G34" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="45">
+      <c r="C35" s="44">
         <v>45304</v>
       </c>
-      <c r="D35" s="46" t="s">
+      <c r="D35" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="43"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="42"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B36" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="52">
-        <v>0</v>
-      </c>
-      <c r="G36" s="53">
+      <c r="C36" s="48"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="51">
+        <v>0</v>
+      </c>
+      <c r="G36" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="54" t="s">
+      <c r="A37" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="54" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="22"/>
@@ -1902,10 +1918,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="54" t="s">
+      <c r="A38" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="54" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="22"/>
@@ -1919,10 +1935,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="54" t="s">
+      <c r="A39" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="55" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="22"/>
@@ -1936,10 +1952,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="54" t="s">
+      <c r="A40" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="55" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="22"/>
@@ -1953,10 +1969,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="54" t="s">
+      <c r="A41" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="55" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="22"/>
@@ -1970,10 +1986,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="54" t="s">
+      <c r="A42" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="55" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="22"/>
@@ -1987,19 +2003,19 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62">
-        <v>0</v>
-      </c>
-      <c r="G43" s="63">
+      <c r="C43" s="58"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="61">
+        <v>0</v>
+      </c>
+      <c r="G43" s="62">
         <v>0</v>
       </c>
     </row>

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC627B35-48B1-4962-82BF-523840889E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E05555-6B96-4E97-BE8D-F02537A253EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>Rafael e Daniel</t>
-  </si>
-  <si>
-    <t>Francisco e Guilherme</t>
   </si>
 </sst>
 </file>
@@ -673,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -721,10 +718,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -732,7 +727,6 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -744,7 +738,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1156,8 +1149,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1181,7 +1174,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45645</v>
+        <v>45657</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1575,7 +1568,7 @@
         <v>84</v>
       </c>
       <c r="F21" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G21" s="19">
         <v>1</v>
@@ -1598,7 +1591,7 @@
         <v>87</v>
       </c>
       <c r="F22" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G22" s="19">
         <v>1</v>
@@ -1621,7 +1614,7 @@
         <v>88</v>
       </c>
       <c r="F23" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G23" s="19">
         <v>1</v>
@@ -1644,7 +1637,7 @@
         <v>82</v>
       </c>
       <c r="F24" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G24" s="19">
         <v>1</v>
@@ -1667,7 +1660,7 @@
         <v>85</v>
       </c>
       <c r="F25" s="19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G25" s="19">
         <v>1</v>
@@ -1689,8 +1682,8 @@
       <c r="E26" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F26" s="25">
-        <v>0.65</v>
+      <c r="F26" s="19">
+        <v>1</v>
       </c>
       <c r="G26" s="19">
         <v>1</v>
@@ -1713,7 +1706,7 @@
         <v>94</v>
       </c>
       <c r="F27" s="19">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G27" s="19">
         <v>1</v>
@@ -1736,7 +1729,7 @@
         <v>83</v>
       </c>
       <c r="F28" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G28" s="19">
         <v>1</v>
@@ -1759,7 +1752,7 @@
         <v>88</v>
       </c>
       <c r="F29" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G29" s="19">
         <v>1</v>
@@ -1782,7 +1775,7 @@
         <v>83</v>
       </c>
       <c r="F30" s="34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30" s="35">
         <v>1</v>
@@ -1815,15 +1808,17 @@
       <c r="C32" s="27">
         <v>45643</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="27">
+        <v>45649</v>
+      </c>
       <c r="E32" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F32" s="18">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="F32" s="19">
+        <v>0.3</v>
       </c>
       <c r="G32" s="19">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -1836,78 +1831,90 @@
       <c r="C33" s="27">
         <v>45643</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="18">
-        <v>0</v>
+      <c r="D33" s="27">
+        <v>45649</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F33" s="19">
+        <v>0.2</v>
       </c>
       <c r="G33" s="19">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="32">
         <v>45643</v>
       </c>
-      <c r="D34" s="40"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="41">
+      <c r="D34" s="32">
+        <v>45657</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="39">
         <v>0</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="42">
+        <v>45304</v>
+      </c>
+      <c r="D35" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="40"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="27">
+        <v>45657</v>
+      </c>
+      <c r="D36" s="46"/>
+      <c r="E36" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="F36" s="48">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>64</v>
-      </c>
-      <c r="C35" s="44">
-        <v>45304</v>
-      </c>
-      <c r="D35" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="51">
-        <v>0</v>
-      </c>
-      <c r="G36" s="52">
-        <v>0</v>
+      <c r="G36" s="49">
+        <v>0.3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="53" t="s">
+      <c r="A37" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="54" t="s">
+      <c r="B37" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="27">
+        <v>45657</v>
+      </c>
       <c r="D37" s="23"/>
       <c r="E37" s="20"/>
       <c r="F37" s="24">
@@ -1918,13 +1925,15 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="53" t="s">
+      <c r="A38" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="54" t="s">
+      <c r="B38" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="27">
+        <v>45657</v>
+      </c>
       <c r="D38" s="23"/>
       <c r="E38" s="20"/>
       <c r="F38" s="24">
@@ -1935,64 +1944,84 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="53" t="s">
+      <c r="A39" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="20"/>
+      <c r="C39" s="27">
+        <v>45657</v>
+      </c>
+      <c r="D39" s="27">
+        <v>45657</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="F39" s="24">
         <v>0</v>
       </c>
       <c r="G39" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="53" t="s">
+      <c r="A40" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="20"/>
+      <c r="C40" s="27">
+        <v>45657</v>
+      </c>
+      <c r="D40" s="27">
+        <v>45657</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="F40" s="24">
         <v>0</v>
       </c>
       <c r="G40" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="53" t="s">
+      <c r="A41" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="22"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="20"/>
+      <c r="C41" s="27">
+        <v>45657</v>
+      </c>
+      <c r="D41" s="27">
+        <v>45657</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="F41" s="24">
         <v>0</v>
       </c>
       <c r="G41" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="53" t="s">
+      <c r="A42" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="C42" s="22"/>
+      <c r="C42" s="27">
+        <v>45657</v>
+      </c>
       <c r="D42" s="23"/>
       <c r="E42" s="20"/>
       <c r="F42" s="24">
@@ -2002,20 +2031,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="56" t="s">
+    <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="57" t="s">
+      <c r="B43" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="58"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="61">
+      <c r="C43" s="32">
+        <v>45657</v>
+      </c>
+      <c r="D43" s="55"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57">
         <v>0</v>
       </c>
-      <c r="G43" s="62">
+      <c r="G43" s="58">
         <v>0</v>
       </c>
     </row>

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E05555-6B96-4E97-BE8D-F02537A253EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33124607-380F-4F1D-9D50-32BBBD995DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -670,7 +670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -729,7 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
@@ -1149,8 +1148,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1174,7 +1173,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45657</v>
+        <v>45665</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1899,17 +1898,17 @@
         <v>84</v>
       </c>
       <c r="F36" s="48">
-        <v>0</v>
-      </c>
-      <c r="G36" s="49">
         <v>0.3</v>
       </c>
+      <c r="G36" s="48">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="27">
@@ -1925,10 +1924,10 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="27">
@@ -1944,10 +1943,10 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="52" t="s">
+      <c r="B39" s="51" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="27">
@@ -1959,18 +1958,18 @@
       <c r="E39" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="24">
-        <v>0</v>
+      <c r="F39" s="25">
+        <v>1</v>
       </c>
       <c r="G39" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="50" t="s">
+      <c r="A40" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="51" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="27">
@@ -1982,18 +1981,18 @@
       <c r="E40" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="24">
-        <v>0</v>
+      <c r="F40" s="25">
+        <v>1</v>
       </c>
       <c r="G40" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="51" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="27">
@@ -2005,18 +2004,18 @@
       <c r="E41" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F41" s="24">
-        <v>0</v>
+      <c r="F41" s="25">
+        <v>1</v>
       </c>
       <c r="G41" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="52" t="s">
+      <c r="B42" s="51" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="27">
@@ -2032,21 +2031,21 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="53" t="s">
+      <c r="A43" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="53" t="s">
         <v>81</v>
       </c>
       <c r="C43" s="32">
         <v>45657</v>
       </c>
-      <c r="D43" s="55"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57">
+      <c r="D43" s="54"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="56">
         <v>0</v>
       </c>
-      <c r="G43" s="58">
+      <c r="G43" s="57">
         <v>0</v>
       </c>
     </row>

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33124607-380F-4F1D-9D50-32BBBD995DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86650721-1DDC-47D2-AD92-75DE1B6BC6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -1149,7 +1149,7 @@
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45665</v>
+        <v>45674</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1898,10 +1898,10 @@
         <v>84</v>
       </c>
       <c r="F36" s="48">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="G36" s="48">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="25">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -2022,12 +2022,14 @@
         <v>45657</v>
       </c>
       <c r="D42" s="23"/>
-      <c r="E42" s="20"/>
+      <c r="E42" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="F42" s="24">
         <v>0</v>
       </c>
       <c r="G42" s="25">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">

--- a/BDII_ControloProgressoProjecto_Grupo1.xlsx
+++ b/BDII_ControloProgressoProjecto_Grupo1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael Fernandes\Desktop\GitHub\BD2-Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86650721-1DDC-47D2-AD92-75DE1B6BC6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814F5352-F994-4D0C-82BA-66CE4827BFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="95">
   <si>
     <t>Data Relatório:</t>
   </si>
@@ -378,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -565,17 +565,6 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -727,20 +716,20 @@
     <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="1" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1148,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1162,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>45674</v>
+        <v>45681</v>
       </c>
       <c r="B2" s="3"/>
     </row>
@@ -1814,7 +1803,7 @@
         <v>84</v>
       </c>
       <c r="F32" s="19">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="19">
         <v>1</v>
@@ -1837,7 +1826,7 @@
         <v>84</v>
       </c>
       <c r="F33" s="19">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="19">
         <v>1</v>
@@ -1860,7 +1849,7 @@
         <v>83</v>
       </c>
       <c r="F34" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34" s="39">
         <v>1</v>
@@ -1893,60 +1882,70 @@
       <c r="C36" s="27">
         <v>45657</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="47" t="s">
+      <c r="D36" s="27">
+        <v>45681</v>
+      </c>
+      <c r="E36" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="G36" s="48">
+      <c r="F36" s="47">
         <v>0.8</v>
       </c>
+      <c r="G36" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C37" s="27">
         <v>45657</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="20"/>
+      <c r="D37" s="27">
+        <v>45681</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="F37" s="24">
         <v>0</v>
       </c>
       <c r="G37" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="49" t="s">
+      <c r="A38" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="27">
         <v>45657</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="24">
-        <v>0</v>
+      <c r="D38" s="27">
+        <v>45681</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="25">
+        <v>0.2</v>
       </c>
       <c r="G38" s="25">
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="50" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="27">
@@ -1966,10 +1965,10 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="50" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="27">
@@ -1989,10 +1988,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+      <c r="A41" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="50" t="s">
         <v>77</v>
       </c>
       <c r="C41" s="27">
@@ -2012,43 +2011,49 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="50" t="s">
         <v>79</v>
       </c>
       <c r="C42" s="27">
         <v>45657</v>
       </c>
-      <c r="D42" s="23"/>
+      <c r="D42" s="27">
+        <v>45681</v>
+      </c>
       <c r="E42" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="G42" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="57">
+        <v>45657</v>
+      </c>
+      <c r="D43" s="53">
+        <v>45681</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="55">
         <v>0</v>
       </c>
-      <c r="G42" s="25">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="32">
-        <v>45657</v>
-      </c>
-      <c r="D43" s="54"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="56">
-        <v>0</v>
-      </c>
-      <c r="G43" s="57">
-        <v>0</v>
+      <c r="G43" s="56">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
